--- a/Jogos_da_Semana_FlashScore_2025-06-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-08.xlsx
@@ -1009,19 +1009,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="H5" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="J5" t="n">
         <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L5" t="n">
         <v>1.06</v>
@@ -1042,37 +1042,37 @@
         <v>5.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="V5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X5" t="n">
         <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
         <v>41</v>
@@ -1081,22 +1081,22 @@
         <v>41</v>
       </c>
       <c r="AE5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AF5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AH5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H6" t="n">
         <v>3.45</v>
@@ -1146,34 +1146,34 @@
         <v>8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="O6" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="P6" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="R6" t="n">
         <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T6" t="n">
         <v>7.9</v>
       </c>
       <c r="U6" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="V6" t="n">
         <v>9.25</v>
@@ -1185,25 +1185,25 @@
         <v>18</v>
       </c>
       <c r="Y6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z6" t="n">
         <v>8</v>
       </c>
       <c r="AA6" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AF6" t="n">
         <v>11.75</v>
@@ -1212,13 +1212,13 @@
         <v>45</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ6" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7">
@@ -1932,10 +1932,10 @@
         <v>5.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>1.22</v>
@@ -1944,10 +1944,10 @@
         <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P13" t="n">
         <v>1.33</v>
@@ -2066,10 +2066,10 @@
         <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P14" t="n">
         <v>1.44</v>
@@ -2660,10 +2660,10 @@
         <v>2.15</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J20" t="n">
         <v>1.08</v>
@@ -2678,10 +2678,10 @@
         <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P20" t="n">
         <v>1.44</v>
@@ -2690,52 +2690,52 @@
         <v>2.63</v>
       </c>
       <c r="R20" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V20" t="n">
         <v>9.5</v>
       </c>
       <c r="W20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X20" t="n">
         <v>19</v>
       </c>
       <c r="Y20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC20" t="n">
         <v>51</v>
       </c>
       <c r="AD20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH20" t="n">
         <v>29</v>
@@ -2744,7 +2744,7 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21">
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H25" t="n">
         <v>4.1</v>
@@ -3282,10 +3282,10 @@
         <v>11</v>
       </c>
       <c r="L25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N25" t="n">
         <v>1.8</v>
@@ -3507,10 +3507,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H27" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="I27" t="n">
         <v>3.35</v>
@@ -3528,19 +3528,19 @@
         <v>2.02</v>
       </c>
       <c r="N27" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="O27" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
         <v>1.62</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R27" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="S27" t="n">
         <v>1.5</v>
@@ -3552,46 +3552,46 @@
         <v>9.25</v>
       </c>
       <c r="V27" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X27" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z27" t="n">
         <v>4.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC27" t="n">
         <v>175</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE27" t="n">
         <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG27" t="n">
         <v>50</v>
       </c>
       <c r="AH27" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="inlineStr"/>
     </row>
@@ -3752,10 +3752,10 @@
         <v>4.33</v>
       </c>
       <c r="J29" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L29" t="n">
         <v>1.14</v>
@@ -3987,19 +3987,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J31" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L31" t="n">
         <v>1.25</v>
@@ -4020,13 +4020,13 @@
         <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S31" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U31" t="n">
         <v>19</v>
@@ -4044,7 +4044,7 @@
         <v>34</v>
       </c>
       <c r="Z31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA31" t="n">
         <v>6.5</v>
@@ -4109,13 +4109,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J32" t="n">
         <v>1.06</v>
@@ -4136,28 +4136,28 @@
         <v>1.75</v>
       </c>
       <c r="P32" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="R32" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S32" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T32" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U32" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="V32" t="n">
         <v>8.25</v>
       </c>
       <c r="W32" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="X32" t="n">
         <v>14</v>
@@ -4169,22 +4169,22 @@
         <v>7.1</v>
       </c>
       <c r="AA32" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AB32" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC32" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD32" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AE32" t="n">
         <v>26</v>
       </c>
       <c r="AF32" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG32" t="n">
         <v>80</v>
@@ -4193,10 +4193,10 @@
         <v>50</v>
       </c>
       <c r="AI32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ32" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="33">

--- a/Jogos_da_Semana_FlashScore_2025-06-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-08.xlsx
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J6" t="n">
         <v>1.06</v>
@@ -1155,13 +1155,13 @@
         <v>1.87</v>
       </c>
       <c r="O6" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="P6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="R6" t="n">
         <v>1.7</v>
@@ -1170,19 +1170,19 @@
         <v>2.02</v>
       </c>
       <c r="T6" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="U6" t="n">
         <v>11.5</v>
       </c>
       <c r="V6" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y6" t="n">
         <v>29</v>
@@ -1191,7 +1191,7 @@
         <v>8</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB6" t="n">
         <v>14.5</v>
@@ -1206,16 +1206,16 @@
         <v>17.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ6" t="n">
         <v>500</v>
@@ -1626,10 +1626,10 @@
         <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
         <v>1.4</v>
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H13" t="n">
         <v>4.2</v>
@@ -1932,10 +1932,10 @@
         <v>5.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L13" t="n">
         <v>1.22</v>
@@ -1944,10 +1944,10 @@
         <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P13" t="n">
         <v>1.33</v>
@@ -1992,7 +1992,7 @@
         <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
         <v>29</v>
@@ -2045,19 +2045,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
         <v>1.36</v>
@@ -2090,10 +2090,10 @@
         <v>17</v>
       </c>
       <c r="V14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X14" t="n">
         <v>29</v>
@@ -2114,7 +2114,7 @@
         <v>51</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>9.5</v>
@@ -2419,25 +2419,25 @@
         <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J18" t="n">
         <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N18" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P18" t="n">
         <v>1.4</v>
@@ -2458,7 +2458,7 @@
         <v>8.5</v>
       </c>
       <c r="V18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W18" t="n">
         <v>15</v>
@@ -2470,7 +2470,7 @@
         <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA18" t="n">
         <v>7</v>
@@ -2550,16 +2550,16 @@
         <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O19" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2779,13 +2779,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="J21" t="n">
         <v>1.08</v>
@@ -2794,43 +2794,43 @@
         <v>6.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M21" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="N21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P21" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R21" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="S21" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="T21" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="U21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V21" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="X21" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
         <v>30</v>
@@ -2839,31 +2839,31 @@
         <v>6.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="n">
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
       <c r="AE21" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI21" t="n">
         <v>45</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>55</v>
       </c>
       <c r="AJ21" t="n">
         <v>800</v>
@@ -2901,94 +2901,94 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I22" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K22" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M22" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O22" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="P22" t="n">
         <v>1.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T22" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="U22" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="V22" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="W22" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z22" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD22" t="n">
         <v>12.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF22" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AH22" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AI22" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ22" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23">
@@ -3507,31 +3507,31 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I27" t="n">
         <v>2.8</v>
       </c>
-      <c r="I27" t="n">
-        <v>3.35</v>
-      </c>
       <c r="J27" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K27" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="L27" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="M27" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="N27" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P27" t="n">
         <v>1.62</v>
@@ -3546,28 +3546,28 @@
         <v>1.5</v>
       </c>
       <c r="T27" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="U27" t="n">
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="V27" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="W27" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="X27" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Y27" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB27" t="n">
         <v>23</v>
@@ -3576,22 +3576,22 @@
         <v>175</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="AE27" t="n">
-        <v>15</v>
+        <v>11.75</v>
       </c>
       <c r="AF27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG27" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="AH27" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AI27" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AJ27" t="inlineStr"/>
     </row>
@@ -3627,13 +3627,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
       <c r="H28" t="n">
         <v>3.15</v>
       </c>
       <c r="I28" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3641,10 +3641,10 @@
         <v>1.44</v>
       </c>
       <c r="M28" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="N28" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="O28" t="n">
         <v>1.5</v>
@@ -3656,58 +3656,58 @@
         <v>2.32</v>
       </c>
       <c r="R28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U28" t="n">
-        <v>7.8</v>
+        <v>9.25</v>
       </c>
       <c r="V28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W28" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="X28" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Y28" t="n">
         <v>40</v>
       </c>
       <c r="Z28" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AA28" t="n">
         <v>6.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="AE28" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF28" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AH28" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI28" t="n">
         <v>50</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>65</v>
       </c>
       <c r="AJ28" t="inlineStr"/>
     </row>
@@ -3752,10 +3752,10 @@
         <v>4.33</v>
       </c>
       <c r="J29" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L29" t="n">
         <v>1.14</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-08.xlsx
@@ -1739,13 +1739,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H11" t="n">
         <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
         <v>1.11</v>
@@ -1781,7 +1781,7 @@
         <v>6.5</v>
       </c>
       <c r="U11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V11" t="n">
         <v>10</v>
@@ -1814,7 +1814,7 @@
         <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
         <v>34</v>
@@ -1860,36 +1860,92 @@
           <t>Real Cundinamarca</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.2</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="V12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>15</v>
+      </c>
+      <c r="X12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>900</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2422,10 +2478,10 @@
         <v>3.8</v>
       </c>
       <c r="J18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L18" t="n">
         <v>1.3</v>
@@ -2556,10 +2612,10 @@
         <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O19" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2785,13 +2841,13 @@
         <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J21" t="n">
         <v>1.08</v>
       </c>
       <c r="K21" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.38</v>
@@ -2821,7 +2877,7 @@
         <v>6.6</v>
       </c>
       <c r="U21" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="V21" t="n">
         <v>8.5</v>
@@ -2836,7 +2892,7 @@
         <v>30</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AA21" t="n">
         <v>6.2</v>
@@ -2863,10 +2919,10 @@
         <v>37</v>
       </c>
       <c r="AI21" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ21" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22">
@@ -2907,25 +2963,25 @@
         <v>3.45</v>
       </c>
       <c r="I22" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="J22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N22" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P22" t="n">
         <v>1.4</v>
@@ -2934,31 +2990,31 @@
         <v>2.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="U22" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="V22" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="W22" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z22" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA22" t="n">
         <v>6.7</v>
@@ -2967,25 +3023,25 @@
         <v>13.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD22" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG22" t="n">
         <v>75</v>
       </c>
       <c r="AH22" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI22" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ22" t="n">
         <v>400</v>
@@ -3507,13 +3563,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H27" t="n">
         <v>2.9</v>
       </c>
       <c r="I27" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J27" t="n">
         <v>1.13</v>
@@ -3528,37 +3584,37 @@
         <v>2.05</v>
       </c>
       <c r="N27" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="O27" t="n">
         <v>1.35</v>
       </c>
       <c r="P27" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q27" t="n">
         <v>2.05</v>
       </c>
       <c r="R27" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="S27" t="n">
         <v>1.5</v>
       </c>
       <c r="T27" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="U27" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V27" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="W27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X27" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y27" t="n">
         <v>60</v>
@@ -3576,10 +3632,10 @@
         <v>175</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF27" t="n">
         <v>12</v>
@@ -3627,13 +3683,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="H28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3665,13 +3721,13 @@
         <v>6</v>
       </c>
       <c r="U28" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V28" t="n">
         <v>9.5</v>
       </c>
       <c r="W28" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="X28" t="n">
         <v>21</v>
@@ -3683,7 +3739,7 @@
         <v>7.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB28" t="n">
         <v>18.5</v>
@@ -3692,7 +3748,7 @@
         <v>110</v>
       </c>
       <c r="AD28" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AE28" t="n">
         <v>15</v>
@@ -3701,7 +3757,7 @@
         <v>12</v>
       </c>
       <c r="AG28" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH28" t="n">
         <v>35</v>
@@ -3987,13 +4043,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -4002,34 +4058,34 @@
         <v>11</v>
       </c>
       <c r="L31" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M31" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N31" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O31" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P31" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R31" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V31" t="n">
         <v>13</v>
@@ -4038,34 +4094,34 @@
         <v>41</v>
       </c>
       <c r="X31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z31" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA31" t="n">
         <v>6.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF31" t="n">
         <v>9</v>
       </c>
       <c r="AG31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
         <v>17</v>
@@ -4074,7 +4130,7 @@
         <v>26</v>
       </c>
       <c r="AJ31" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32">
@@ -4109,94 +4165,94 @@
         </is>
       </c>
       <c r="G32" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O32" t="n">
         <v>1.65</v>
       </c>
-      <c r="H32" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K32" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M32" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.75</v>
-      </c>
       <c r="P32" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S32" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="T32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U32" t="n">
+        <v>9</v>
+      </c>
+      <c r="V32" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W32" t="n">
+        <v>18</v>
+      </c>
+      <c r="X32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA32" t="n">
         <v>6.3</v>
       </c>
-      <c r="U32" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="V32" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="W32" t="n">
+      <c r="AB32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF32" t="n">
         <v>12</v>
       </c>
-      <c r="X32" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AG32" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="AI32" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AJ32" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="33">

--- a/Jogos_da_Semana_FlashScore_2025-06-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-08.xlsx
@@ -656,10 +656,10 @@
         <v>2.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
         <v>1.57</v>
@@ -776,10 +776,10 @@
         <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>1.53</v>
@@ -1009,52 +1009,52 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="H5" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
         <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="M5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P5" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U5" t="n">
         <v>11</v>
       </c>
       <c r="V5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W5" t="n">
         <v>11</v>
@@ -1063,28 +1063,28 @@
         <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC5" t="n">
         <v>34</v>
       </c>
-      <c r="AA5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>41</v>
-      </c>
       <c r="AD5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE5" t="n">
         <v>51</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG5" t="n">
         <v>101</v>
@@ -1096,7 +1096,7 @@
         <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -1375,19 +1375,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J8" t="n">
         <v>1.11</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L8" t="n">
         <v>1.47</v>
@@ -1396,10 +1396,10 @@
         <v>2.55</v>
       </c>
       <c r="N8" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O8" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P8" t="n">
         <v>1.52</v>
@@ -1408,10 +1408,10 @@
         <v>2.42</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T8" t="n">
         <v>5.6</v>
@@ -1432,13 +1432,13 @@
         <v>45</v>
       </c>
       <c r="Z8" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AA8" t="n">
         <v>6.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="n">
         <v>120</v>
@@ -1450,7 +1450,7 @@
         <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
         <v>70</v>
@@ -1638,10 +1638,10 @@
         <v>2.75</v>
       </c>
       <c r="N10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P10" t="n">
         <v>1.5</v>
@@ -2835,13 +2835,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J21" t="n">
         <v>1.08</v>
@@ -2868,10 +2868,10 @@
         <v>2.42</v>
       </c>
       <c r="R21" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S21" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="T21" t="n">
         <v>6.6</v>
@@ -2883,10 +2883,10 @@
         <v>8.5</v>
       </c>
       <c r="W21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X21" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y21" t="n">
         <v>30</v>
@@ -2895,19 +2895,19 @@
         <v>6.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AB21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD21" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
         <v>12.5</v>
@@ -2916,10 +2916,10 @@
         <v>55</v>
       </c>
       <c r="AH21" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI21" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ21" t="n">
         <v>700</v>
@@ -2960,91 +2960,91 @@
         <v>1.78</v>
       </c>
       <c r="H22" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="J22" t="n">
         <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M22" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="N22" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O22" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="P22" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="R22" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T22" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="U22" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V22" t="n">
         <v>8</v>
       </c>
       <c r="W22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y22" t="n">
         <v>24</v>
       </c>
       <c r="Z22" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC22" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD22" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
         <v>75</v>
       </c>
       <c r="AH22" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AJ22" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23">
@@ -3079,10 +3079,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
         <v>3.4</v>
@@ -3133,7 +3133,7 @@
         <v>19</v>
       </c>
       <c r="Y23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="n">
         <v>8</v>
@@ -3154,10 +3154,10 @@
         <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH23" t="n">
         <v>29</v>
@@ -3563,91 +3563,91 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="H27" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="I27" t="n">
-        <v>2.82</v>
+        <v>3.35</v>
       </c>
       <c r="J27" t="n">
         <v>1.13</v>
       </c>
       <c r="K27" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="M27" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N27" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P27" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R27" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="S27" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T27" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="U27" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="V27" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="W27" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="X27" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y27" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI27" t="n">
         <v>60</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>175</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>35</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>35</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>65</v>
       </c>
       <c r="AJ27" t="inlineStr"/>
     </row>
@@ -4204,7 +4204,7 @@
         <v>1.82</v>
       </c>
       <c r="T32" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="U32" t="n">
         <v>9</v>
@@ -4228,16 +4228,16 @@
         <v>6.3</v>
       </c>
       <c r="AB32" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC32" t="n">
         <v>80</v>
       </c>
       <c r="AD32" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF32" t="n">
         <v>12</v>
@@ -4246,7 +4246,7 @@
         <v>50</v>
       </c>
       <c r="AH32" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI32" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-08.xlsx
@@ -791,7 +791,7 @@
         <v>2.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
         <v>1.57</v>
@@ -1131,94 +1131,94 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S6" t="n">
         <v>2.2</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.02</v>
-      </c>
       <c r="T6" t="n">
-        <v>7.8</v>
+        <v>8.75</v>
       </c>
       <c r="U6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="V6" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W6" t="n">
         <v>23</v>
       </c>
       <c r="X6" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AA6" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AE6" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>11.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7">
@@ -1375,91 +1375,91 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="I8" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J8" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K8" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="M8" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="N8" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="P8" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="S8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T8" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="U8" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="V8" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W8" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE8" t="n">
         <v>20</v>
       </c>
-      <c r="AC8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>21</v>
-      </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG8" t="n">
         <v>70</v>
       </c>
       <c r="AH8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
     </row>
@@ -1617,13 +1617,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H10" t="n">
         <v>2.9</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>1.08</v>
@@ -1638,10 +1638,10 @@
         <v>2.75</v>
       </c>
       <c r="N10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P10" t="n">
         <v>1.5</v>
@@ -1656,19 +1656,19 @@
         <v>1.8</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V10" t="n">
         <v>10</v>
       </c>
       <c r="W10" t="n">
+        <v>26</v>
+      </c>
+      <c r="X10" t="n">
         <v>23</v>
-      </c>
-      <c r="X10" t="n">
-        <v>21</v>
       </c>
       <c r="Y10" t="n">
         <v>34</v>
@@ -1689,16 +1689,16 @@
         <v>8.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>12</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
         <v>41</v>
@@ -2716,40 +2716,40 @@
         <v>2.15</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
         <v>3.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N20" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="P20" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T20" t="n">
         <v>6.5</v>
@@ -2764,13 +2764,13 @@
         <v>21</v>
       </c>
       <c r="X20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
         <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
@@ -2779,10 +2779,10 @@
         <v>17</v>
       </c>
       <c r="AC20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE20" t="n">
         <v>17</v>
@@ -2794,7 +2794,7 @@
         <v>41</v>
       </c>
       <c r="AH20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI20" t="n">
         <v>41</v>
@@ -2835,13 +2835,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I21" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
         <v>1.08</v>
@@ -2874,16 +2874,16 @@
         <v>1.85</v>
       </c>
       <c r="T21" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="U21" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="V21" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W21" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="X21" t="n">
         <v>17.5</v>
@@ -2901,19 +2901,19 @@
         <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG21" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="n">
         <v>35</v>
@@ -2957,94 +2957,94 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="H22" t="n">
         <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>4.45</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K22" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="M22" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="N22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R22" t="n">
         <v>1.83</v>
       </c>
-      <c r="O22" t="n">
+      <c r="S22" t="n">
         <v>1.87</v>
       </c>
-      <c r="P22" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.98</v>
-      </c>
       <c r="T22" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="U22" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="V22" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W22" t="n">
         <v>15</v>
       </c>
       <c r="X22" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Y22" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Z22" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AA22" t="n">
         <v>6.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AE22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AH22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI22" t="n">
         <v>45</v>
       </c>
       <c r="AJ22" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23">
@@ -3566,10 +3566,10 @@
         <v>2.32</v>
       </c>
       <c r="H27" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="I27" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J27" t="n">
         <v>1.13</v>
@@ -3596,25 +3596,25 @@
         <v>2.1</v>
       </c>
       <c r="R27" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S27" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T27" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="U27" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="V27" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W27" t="n">
         <v>24</v>
       </c>
       <c r="X27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y27" t="n">
         <v>50</v>
@@ -3626,19 +3626,19 @@
         <v>5.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC27" t="n">
         <v>150</v>
       </c>
       <c r="AD27" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AE27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG27" t="n">
         <v>50</v>
@@ -3647,7 +3647,7 @@
         <v>40</v>
       </c>
       <c r="AI27" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ27" t="inlineStr"/>
     </row>
@@ -3683,13 +3683,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I28" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3712,58 +3712,58 @@
         <v>2.32</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S28" t="n">
         <v>1.65</v>
       </c>
       <c r="T28" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="U28" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="V28" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="W28" t="n">
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="X28" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y28" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z28" t="n">
         <v>7.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC28" t="n">
         <v>110</v>
       </c>
       <c r="AD28" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE28" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI28" t="n">
         <v>45</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>35</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>50</v>
       </c>
       <c r="AJ28" t="inlineStr"/>
     </row>
@@ -3808,10 +3808,10 @@
         <v>4.33</v>
       </c>
       <c r="J29" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L29" t="n">
         <v>1.14</v>
@@ -4064,10 +4064,10 @@
         <v>3.5</v>
       </c>
       <c r="N31" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O31" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P31" t="n">
         <v>1.4</v>
@@ -4165,7 +4165,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>3.2</v>
@@ -4174,70 +4174,70 @@
         <v>3.45</v>
       </c>
       <c r="J32" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K32" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L32" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M32" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="N32" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="O32" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="P32" t="n">
         <v>1.47</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R32" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S32" t="n">
         <v>1.88</v>
       </c>
-      <c r="S32" t="n">
-        <v>1.82</v>
-      </c>
       <c r="T32" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="U32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V32" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W32" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="X32" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y32" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z32" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AA32" t="n">
         <v>6.3</v>
       </c>
       <c r="AB32" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC32" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AE32" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF32" t="n">
         <v>12</v>
@@ -4246,13 +4246,13 @@
         <v>50</v>
       </c>
       <c r="AH32" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI32" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ32" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33">

--- a/Jogos_da_Semana_FlashScore_2025-06-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-08.xlsx
@@ -791,7 +791,7 @@
         <v>2.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P3" t="n">
         <v>1.57</v>
@@ -887,55 +887,55 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M4" t="n">
         <v>6.5</v>
       </c>
-      <c r="J4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7</v>
-      </c>
       <c r="N4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="O4" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="P4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X4" t="n">
         <v>11</v>
@@ -944,16 +944,16 @@
         <v>19</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD4" t="n">
         <v>26</v>
@@ -971,10 +971,10 @@
         <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -1134,7 +1134,7 @@
         <v>2.15</v>
       </c>
       <c r="H6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
         <v>3.1</v>
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="K6" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="L6" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="M6" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="N6" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="O6" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="P6" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T6" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="U6" t="n">
         <v>12</v>
@@ -1185,25 +1185,25 @@
         <v>17.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF6" t="n">
         <v>11.5</v>
@@ -1212,13 +1212,13 @@
         <v>45</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AJ6" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7">
@@ -1375,91 +1375,91 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="M8" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="N8" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="P8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R8" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="U8" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="V8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W8" t="n">
+        <v>18</v>
+      </c>
+      <c r="X8" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB8" t="n">
         <v>21</v>
-      </c>
-      <c r="X8" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>22</v>
       </c>
       <c r="AC8" t="n">
         <v>150</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.8</v>
+        <v>8.75</v>
       </c>
       <c r="AE8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF8" t="n">
         <v>15.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="n">
         <v>55</v>
       </c>
       <c r="AI8" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
     </row>
@@ -1748,10 +1748,10 @@
         <v>3.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
         <v>1.44</v>
@@ -1861,24 +1861,24 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
         <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
         <v>2.65</v>
       </c>
       <c r="N12" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="O12" t="n">
         <v>1.6</v>
@@ -1899,7 +1899,7 @@
         <v>5.9</v>
       </c>
       <c r="U12" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
@@ -1914,7 +1914,7 @@
         <v>32</v>
       </c>
       <c r="Z12" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA12" t="n">
         <v>6.4</v>
@@ -1926,22 +1926,22 @@
         <v>90</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AE12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF12" t="n">
         <v>14</v>
       </c>
       <c r="AG12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AH12" t="n">
         <v>45</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
         <v>900</v>
@@ -2110,10 +2110,10 @@
         <v>2.15</v>
       </c>
       <c r="J14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L14" t="n">
         <v>1.36</v>
@@ -2122,10 +2122,10 @@
         <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P14" t="n">
         <v>1.44</v>
@@ -2490,10 +2490,10 @@
         <v>3.4</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P18" t="n">
         <v>1.4</v>
@@ -2713,19 +2713,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J20" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
         <v>1.44</v>
@@ -2734,10 +2734,10 @@
         <v>2.63</v>
       </c>
       <c r="N20" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O20" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>
@@ -2785,7 +2785,7 @@
         <v>8.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
@@ -2963,58 +2963,58 @@
         <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="J22" t="n">
         <v>1.07</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P22" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R22" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S22" t="n">
         <v>1.83</v>
       </c>
-      <c r="S22" t="n">
-        <v>1.87</v>
-      </c>
       <c r="T22" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="U22" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="V22" t="n">
         <v>8.25</v>
       </c>
       <c r="W22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X22" t="n">
         <v>15</v>
       </c>
       <c r="Y22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z22" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA22" t="n">
         <v>6.6</v>
@@ -3023,7 +3023,7 @@
         <v>15.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="n">
         <v>11.25</v>
@@ -3032,7 +3032,7 @@
         <v>23</v>
       </c>
       <c r="AF22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
         <v>70</v>
@@ -3044,7 +3044,7 @@
         <v>45</v>
       </c>
       <c r="AJ22" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="23">
@@ -3216,10 +3216,10 @@
         <v>8</v>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M24" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N24" t="n">
         <v>2.35</v>
@@ -3445,13 +3445,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -3462,16 +3462,16 @@
         <v>2.42</v>
       </c>
       <c r="N26" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="O26" t="n">
         <v>1.5</v>
       </c>
       <c r="P26" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R26" t="n">
         <v>1.93</v>
@@ -3480,19 +3480,19 @@
         <v>1.7</v>
       </c>
       <c r="T26" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="U26" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="V26" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W26" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y26" t="n">
         <v>40</v>
@@ -3501,7 +3501,7 @@
         <v>7</v>
       </c>
       <c r="AA26" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB26" t="n">
         <v>16.5</v>
@@ -3510,19 +3510,19 @@
         <v>100</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AE26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AG26" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AH26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI26" t="n">
         <v>45</v>
@@ -3683,36 +3683,36 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M28" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="N28" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="O28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P28" t="n">
         <v>1.5</v>
       </c>
-      <c r="P28" t="n">
-        <v>1.47</v>
-      </c>
       <c r="Q28" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S28" t="n">
         <v>1.65</v>
@@ -3721,46 +3721,46 @@
         <v>6.8</v>
       </c>
       <c r="U28" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="V28" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W28" t="n">
+        <v>30</v>
+      </c>
+      <c r="X28" t="n">
         <v>28</v>
-      </c>
-      <c r="X28" t="n">
-        <v>26</v>
       </c>
       <c r="Y28" t="n">
         <v>45</v>
       </c>
       <c r="Z28" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AA28" t="n">
         <v>6.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF28" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI28" t="n">
         <v>45</v>
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
@@ -4052,40 +4052,40 @@
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S31" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V31" t="n">
         <v>13</v>
@@ -4094,28 +4094,28 @@
         <v>41</v>
       </c>
       <c r="X31" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y31" t="n">
         <v>34</v>
       </c>
-      <c r="Y31" t="n">
-        <v>41</v>
-      </c>
       <c r="Z31" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA31" t="n">
         <v>6.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF31" t="n">
         <v>9</v>
@@ -4124,13 +4124,13 @@
         <v>17</v>
       </c>
       <c r="AH31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI31" t="n">
         <v>26</v>
       </c>
       <c r="AJ31" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32">
@@ -4180,10 +4180,10 @@
         <v>6.8</v>
       </c>
       <c r="L32" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M32" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="N32" t="n">
         <v>2.02</v>
@@ -4192,10 +4192,10 @@
         <v>1.72</v>
       </c>
       <c r="P32" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R32" t="n">
         <v>1.82</v>
@@ -4204,22 +4204,22 @@
         <v>1.88</v>
       </c>
       <c r="T32" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="U32" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V32" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W32" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="X32" t="n">
         <v>17</v>
       </c>
       <c r="Y32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z32" t="n">
         <v>6.8</v>
@@ -4228,16 +4228,16 @@
         <v>6.3</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD32" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AE32" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF32" t="n">
         <v>12</v>
@@ -4246,7 +4246,7 @@
         <v>50</v>
       </c>
       <c r="AH32" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI32" t="n">
         <v>40</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-08.xlsx
@@ -1982,10 +1982,10 @@
         <v>1.55</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J13" t="n">
         <v>1.04</v>
@@ -2000,16 +2000,16 @@
         <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R13" t="n">
         <v>1.8</v>
@@ -2021,7 +2021,7 @@
         <v>7.5</v>
       </c>
       <c r="U13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V13" t="n">
         <v>8.5</v>
@@ -2066,7 +2066,7 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14">
@@ -2101,10 +2101,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
         <v>2.15</v>
@@ -2113,7 +2113,7 @@
         <v>1.07</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.36</v>
@@ -2158,7 +2158,7 @@
         <v>41</v>
       </c>
       <c r="Z14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA14" t="n">
         <v>6.5</v>
@@ -2612,10 +2612,10 @@
         <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2719,7 +2719,7 @@
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J20" t="n">
         <v>1.08</v>
@@ -2728,10 +2728,10 @@
         <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N20" t="n">
         <v>2.35</v>
@@ -2785,7 +2785,7 @@
         <v>8.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
@@ -3332,10 +3332,10 @@
         <v>8</v>
       </c>
       <c r="J25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L25" t="n">
         <v>1.25</v>
@@ -3683,13 +3683,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3709,7 +3709,7 @@
         <v>1.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="R28" t="n">
         <v>2</v>
@@ -3718,19 +3718,19 @@
         <v>1.65</v>
       </c>
       <c r="T28" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="U28" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="V28" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W28" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X28" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y28" t="n">
         <v>45</v>
@@ -3745,22 +3745,22 @@
         <v>18.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AF28" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AG28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH28" t="n">
         <v>27</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>25</v>
       </c>
       <c r="AI28" t="n">
         <v>45</v>
@@ -4043,13 +4043,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="J31" t="n">
         <v>1.06</v>
@@ -4085,7 +4085,7 @@
         <v>12</v>
       </c>
       <c r="U31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V31" t="n">
         <v>13</v>
@@ -4094,13 +4094,13 @@
         <v>41</v>
       </c>
       <c r="X31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA31" t="n">
         <v>6.5</v>
@@ -4112,13 +4112,13 @@
         <v>41</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG31" t="n">
         <v>17</v>
@@ -4198,7 +4198,7 @@
         <v>2.55</v>
       </c>
       <c r="R32" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S32" t="n">
         <v>1.88</v>
@@ -4228,10 +4228,10 @@
         <v>6.3</v>
       </c>
       <c r="AB32" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC32" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-08.xlsx
@@ -1131,49 +1131,49 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K6" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O6" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="P6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T6" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U6" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="V6" t="n">
         <v>9.25</v>
@@ -1182,34 +1182,34 @@
         <v>23</v>
       </c>
       <c r="X6" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE6" t="n">
         <v>17.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>18</v>
       </c>
       <c r="AF6" t="n">
         <v>11.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
         <v>28</v>
@@ -1218,7 +1218,7 @@
         <v>35</v>
       </c>
       <c r="AJ6" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
         <v>2.9</v>
@@ -1629,7 +1629,7 @@
         <v>1.08</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.4</v>
@@ -1659,13 +1659,13 @@
         <v>7.5</v>
       </c>
       <c r="U10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V10" t="n">
         <v>10</v>
       </c>
       <c r="W10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X10" t="n">
         <v>23</v>
@@ -1674,7 +1674,7 @@
         <v>34</v>
       </c>
       <c r="Z10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA10" t="n">
         <v>5.5</v>
@@ -1686,7 +1686,7 @@
         <v>51</v>
       </c>
       <c r="AD10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
@@ -1739,13 +1739,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
         <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
         <v>1.1</v>
@@ -1766,10 +1766,10 @@
         <v>1.53</v>
       </c>
       <c r="P11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
         <v>2</v>
@@ -1778,7 +1778,7 @@
         <v>1.73</v>
       </c>
       <c r="T11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U11" t="n">
         <v>11</v>
@@ -1796,10 +1796,10 @@
         <v>41</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB11" t="n">
         <v>17</v>
@@ -1811,7 +1811,7 @@
         <v>8</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
@@ -1979,13 +1979,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H13" t="n">
         <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
         <v>1.04</v>
@@ -1994,10 +1994,10 @@
         <v>13</v>
       </c>
       <c r="L13" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N13" t="n">
         <v>1.7</v>
@@ -2021,7 +2021,7 @@
         <v>7.5</v>
       </c>
       <c r="U13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V13" t="n">
         <v>8.5</v>
@@ -2048,16 +2048,16 @@
         <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>29</v>
       </c>
       <c r="AF13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AH13" t="n">
         <v>41</v>
@@ -2113,7 +2113,7 @@
         <v>1.07</v>
       </c>
       <c r="K14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L14" t="n">
         <v>1.36</v>
@@ -2713,13 +2713,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J20" t="n">
         <v>1.08</v>
@@ -2728,10 +2728,10 @@
         <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N20" t="n">
         <v>2.35</v>
@@ -2761,7 +2761,7 @@
         <v>9.5</v>
       </c>
       <c r="W20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X20" t="n">
         <v>21</v>
@@ -2782,7 +2782,7 @@
         <v>67</v>
       </c>
       <c r="AD20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>17</v>
@@ -2895,7 +2895,7 @@
         <v>6.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB21" t="n">
         <v>15</v>
@@ -2907,7 +2907,7 @@
         <v>9</v>
       </c>
       <c r="AE21" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF21" t="n">
         <v>12</v>
@@ -2957,10 +2957,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I22" t="n">
         <v>4.25</v>
@@ -2969,7 +2969,7 @@
         <v>1.07</v>
       </c>
       <c r="K22" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="L22" t="n">
         <v>1.34</v>
@@ -2987,25 +2987,25 @@
         <v>1.45</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="R22" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S22" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T22" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="U22" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="V22" t="n">
         <v>8.25</v>
       </c>
       <c r="W22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X22" t="n">
         <v>15</v>
@@ -3014,10 +3014,10 @@
         <v>29</v>
       </c>
       <c r="Z22" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB22" t="n">
         <v>15.5</v>
@@ -3026,7 +3026,7 @@
         <v>80</v>
       </c>
       <c r="AD22" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>23</v>
@@ -3445,13 +3445,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I26" t="n">
-        <v>2.82</v>
+        <v>2.65</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -3462,16 +3462,16 @@
         <v>2.42</v>
       </c>
       <c r="N26" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="O26" t="n">
         <v>1.5</v>
       </c>
       <c r="P26" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="R26" t="n">
         <v>1.93</v>
@@ -3480,22 +3480,22 @@
         <v>1.7</v>
       </c>
       <c r="T26" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="U26" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="V26" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="W26" t="n">
+        <v>30</v>
+      </c>
+      <c r="X26" t="n">
         <v>27</v>
       </c>
-      <c r="X26" t="n">
-        <v>24</v>
-      </c>
       <c r="Y26" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z26" t="n">
         <v>7</v>
@@ -3510,22 +3510,22 @@
         <v>100</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AG26" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AH26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI26" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
@@ -3683,13 +3683,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3709,7 +3709,7 @@
         <v>1.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R28" t="n">
         <v>2</v>
@@ -3718,46 +3718,46 @@
         <v>1.65</v>
       </c>
       <c r="T28" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="U28" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="V28" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="W28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y28" t="n">
         <v>45</v>
       </c>
       <c r="Z28" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AA28" t="n">
         <v>6.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC28" t="n">
         <v>110</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE28" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF28" t="n">
         <v>10.75</v>
       </c>
       <c r="AG28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH28" t="n">
         <v>27</v>
@@ -4049,13 +4049,13 @@
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J31" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L31" t="n">
         <v>1.25</v>
@@ -4064,10 +4064,10 @@
         <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O31" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P31" t="n">
         <v>1.36</v>
@@ -4121,7 +4121,7 @@
         <v>8.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
         <v>15</v>
@@ -4165,19 +4165,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>3.45</v>
+        <v>2.75</v>
       </c>
       <c r="J32" t="n">
         <v>1.07</v>
       </c>
       <c r="K32" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="L32" t="n">
         <v>1.34</v>
@@ -4192,64 +4192,64 @@
         <v>1.72</v>
       </c>
       <c r="P32" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R32" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S32" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T32" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="U32" t="n">
+        <v>12</v>
+      </c>
+      <c r="V32" t="n">
         <v>9.25</v>
       </c>
-      <c r="V32" t="n">
-        <v>8.75</v>
-      </c>
       <c r="W32" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="X32" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="n">
         <v>30</v>
       </c>
       <c r="Z32" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC32" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AD32" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="AE32" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AG32" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AH32" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AI32" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AJ32" t="n">
         <v>600</v>
